--- a/output/fit_clients/fit_round_16.xlsx
+++ b/output/fit_clients/fit_round_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>6552780782.599907</v>
+        <v>8638052097.738512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1898751524396857</v>
+        <v>0.1446447666513973</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.332394478135387</v>
+        <v>0.219630345085909</v>
       </c>
       <c r="I2" t="n">
-        <v>0.721798450323373</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.883621766084639</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7316547726832512</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.749473687580386</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>6173709332.398814</v>
+        <v>11824991041.9125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2354761735170866</v>
+        <v>0.1331293515927594</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5150648833916565</v>
+        <v>0.1863801417282789</v>
       </c>
       <c r="I3" t="n">
-        <v>4.488713716716746</v>
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9684537164274715</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6588699702667038</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.064334878273402</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9443757409058084</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13.82317993984277</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>8663980762.031086</v>
+        <v>12829551037.91229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1714216791095261</v>
+        <v>0.1020842425529742</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2584728120857517</v>
+        <v>0.09673889270891782</v>
       </c>
       <c r="I4" t="n">
-        <v>4.585766986267378</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.759491232609065</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7438729075113645</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.117966917618224</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6587648049.505867</v>
+        <v>15697769911.83047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2202822690427198</v>
+        <v>0.06858103386957241</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4542005294324181</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.480625944254194</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.412442845883845</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6459186854218282</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.505930862552718</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>4314437119.143338</v>
+        <v>8751729463.65666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2835260072681013</v>
+        <v>0.1538400456265314</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.707544840998222</v>
+        <v>0.2461812678530398</v>
       </c>
       <c r="I6" t="n">
-        <v>3.776989740012109</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.835599867917122</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7510865922043364</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.186131976169604</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>4876939584.15493</v>
+        <v>4245182242.340039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2411565880006271</v>
+        <v>0.3776202265268013</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5378197163146008</v>
+        <v>0.8923357038375086</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5168825854440776</v>
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9712236425211986</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.347648352452531</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.162892878267207</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9300703094065159</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.43851330986311</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>5122717410.473123</v>
+        <v>4222617627.369292</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2986156833231834</v>
+        <v>0.285348924844675</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7679916725612486</v>
+        <v>0.6259067883897278</v>
       </c>
       <c r="I8" t="n">
-        <v>4.723259118130774</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.739824856456877</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.722308219386961</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.706339531282342</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>4127316023.738366</v>
+        <v>15016674145.60712</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2817834043506536</v>
+        <v>0.08878593868869597</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7005642521076659</v>
+        <v>0.05834068425987635</v>
       </c>
       <c r="I9" t="n">
-        <v>3.590970973373397</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.045040077771022</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.748528874653498</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.925537415298939</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5924771153.378026</v>
+        <v>4044296120.26298</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2444858429973486</v>
+        <v>0.3380864158658813</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5511561799525604</v>
+        <v>0.7781837399452819</v>
       </c>
       <c r="I10" t="n">
-        <v>4.472538171791641</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.718779019200846</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7551371599875236</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.383964180549627</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>8586297624.828407</v>
+        <v>7050843155.587348</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1253822470452176</v>
+        <v>0.2150986451596458</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0740462024560915</v>
+        <v>0.4230625076092911</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5711207659905021</v>
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9573823085148697</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1940034291000336</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.009247954914709</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9044634878912903</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.08002180291109</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>3912112294.528748</v>
+        <v>7652278067.125731</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3240665565180861</v>
+        <v>0.1663587664788245</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8699438045704775</v>
+        <v>0.282328468105619</v>
       </c>
       <c r="I12" t="n">
-        <v>3.914481871875505</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.791252855084804</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7364921969732168</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.938591084379531</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>8555696286.925128</v>
+        <v>11488075111.47008</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1448124651050791</v>
+        <v>0.1247211840188474</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1518805518490173</v>
+        <v>0.1621019650169762</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6876902809002217</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.802564427984256</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7674791109999808</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.547017792015358</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>4349684454.904138</v>
+        <v>13759929902.39719</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3185650187653758</v>
+        <v>0.1170736232979902</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8479055232540464</v>
+        <v>0.1400200037621292</v>
       </c>
       <c r="I14" t="n">
-        <v>4.278431632690376</v>
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3751925705073544</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.25924634370912</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.498335685228845</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.70746736086778</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>8157241005.324939</v>
+        <v>6103658018.480652</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1801439713551119</v>
+        <v>0.1609315671071151</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2934129213556819</v>
+        <v>0.2666576927273248</v>
       </c>
       <c r="I15" t="n">
-        <v>4.537240351492063</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.501414662091007</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6185061421490523</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.86870818089004</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>8817707674.614937</v>
+        <v>6126061291.871531</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1773449390369237</v>
+        <v>0.2176389439278173</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.282200445060009</v>
+        <v>0.4303974972905777</v>
       </c>
       <c r="I16" t="n">
-        <v>4.82840016014396</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9645102326048188</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.955511421557669</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8324373860031556</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12.69323629850544</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>8675251549.535345</v>
+        <v>9449018311.69466</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1337586309024263</v>
+        <v>0.1519126826353414</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1076006579842089</v>
+        <v>0.2406161005468932</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5543579876469565</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.040525770030754</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7679632366995661</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.318738963960568</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5891296895.812768</v>
+        <v>12540561406.08844</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2071930445175094</v>
+        <v>0.08751796466361961</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4017671871076466</v>
+        <v>0.05467947066303282</v>
       </c>
       <c r="I18" t="n">
-        <v>3.768901967549556</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.79128704137916</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6985239036062434</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.179191030745708</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>6537148469.725371</v>
+        <v>7580511688.583153</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.201147914276336</v>
+        <v>0.1727713185869107</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3775513611262994</v>
+        <v>0.3008444017953322</v>
       </c>
       <c r="I19" t="n">
-        <v>4.060061776201453</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.131726686549026</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7438729075113645</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.745731463678263</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>4297897477.422908</v>
+        <v>4264459143.189225</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3565332021178921</v>
+        <v>0.3470440917141015</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.8040485951891784</v>
       </c>
       <c r="I20" t="n">
-        <v>4.731346890593327</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.376381417186613</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7760866019663309</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.145350622140006</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>7990741781.870952</v>
+        <v>5818479017.589692</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1770136789063926</v>
+        <v>0.1697196169333402</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2808734698989342</v>
+        <v>0.2920327610467062</v>
       </c>
       <c r="I21" t="n">
-        <v>4.367397129778456</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.009588877463983</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.5145441711910821</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-13.30047230128562</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>4120930222.232244</v>
+        <v>14188707220.26783</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3483256552746123</v>
+        <v>0.1115049831840942</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9671218785764262</v>
+        <v>0.1239408250899187</v>
       </c>
       <c r="I22" t="n">
-        <v>4.432099309478877</v>
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9730271496184822</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3703249516203182</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.913821302163436</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7928028756569442</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.94223621097545</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7850320406.610414</v>
+        <v>12938361549.65932</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15949265191083</v>
+        <v>0.1089188777567517</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2106870348988722</v>
+        <v>0.1164735708984246</v>
       </c>
       <c r="I23" t="n">
-        <v>3.865955237100188</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.102394401797447</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7630895565495576</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.159396729193704</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>5506777386.474005</v>
+        <v>7679243630.676927</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2497249577180619</v>
+        <v>0.1940858998203991</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5721432365272884</v>
+        <v>0.36238922296655</v>
       </c>
       <c r="I24" t="n">
-        <v>4.246080542840165</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.926323692963462</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7779694146977599</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.633064600991736</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>9552592022.878056</v>
+        <v>8526057586.815212</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1384746618333505</v>
+        <v>0.1514603035284411</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.126492324464457</v>
+        <v>0.2393098777817924</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6553912002985595</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.963320677233246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7402040171985391</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.840759666737536</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>6835019072.899383</v>
+        <v>13030558633.60682</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1601904849602046</v>
+        <v>0.1188022350789654</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2134824426094607</v>
+        <v>0.1450112865731387</v>
       </c>
       <c r="I26" t="n">
-        <v>3.380688889347027</v>
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3709772694668838</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.48611138019779</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5540792945183657</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.595474510169525</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>5347171363.336633</v>
+        <v>10651332892.24897</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2738343154737266</v>
+        <v>0.1443558234029946</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6687214720062793</v>
+        <v>0.2187960354479775</v>
       </c>
       <c r="I27" t="n">
-        <v>4.521064806566957</v>
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3302913468181577</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.214345120019924</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4573974356769903</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.933603593519881</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>5827417956.48616</v>
+        <v>4565402063.390925</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1977774047796218</v>
+        <v>0.3316263056304574</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3640496385521528</v>
+        <v>0.7595304844658429</v>
       </c>
       <c r="I28" t="n">
-        <v>3.558619883523186</v>
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9723425787853521</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3785041300291768</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.493638240760083</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8596029580006203</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.69842091925232</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4247852075.94506</v>
+        <v>10717030665.55374</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3212687649195933</v>
+        <v>0.1510477174617993</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8587362983996881</v>
+        <v>0.238118555493494</v>
       </c>
       <c r="I29" t="n">
-        <v>4.213729452989955</v>
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9730069253388233</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2955661390810345</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.993351415169446</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8346254039195509</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13.69915666322157</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>6170622460.409523</v>
+        <v>10189261367.41336</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2496022613410353</v>
+        <v>0.1226241024688902</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5716517344427874</v>
+        <v>0.1560467435908664</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6642248398515412</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.719405900761481</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7316547726832512</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.913689552903544</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>4235538856.911123</v>
+        <v>4230757625.012444</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.347558416940971</v>
+        <v>0.2321738414398321</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9640484443851938</v>
+        <v>0.4723663100164624</v>
       </c>
       <c r="I31" t="n">
-        <v>4.545328123954615</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.081245223893013</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4626583052641373</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.171920881389733</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8750145183.355366</v>
+        <v>10430641070.76402</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1341105427864467</v>
+        <v>0.09969644463318016</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1090103607704554</v>
+        <v>0.08984424184259734</v>
       </c>
       <c r="I32" t="n">
-        <v>3.623322063223608</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.844744878572827</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.5707724485990954</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-14.26019385055474</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>4217251982.342952</v>
+        <v>3923001529.238366</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2602463439688172</v>
+        <v>0.3465365485758385</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.614290228960221</v>
+        <v>0.8025830889547891</v>
       </c>
       <c r="I33" t="n">
-        <v>3.38877666180958</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.828581984117708</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7536241464967205</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.243900945816701</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>8035182003.505647</v>
+        <v>7326124985.861695</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1750566980793108</v>
+        <v>0.1515973808996338</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2730341173512139</v>
+        <v>0.2397056820532563</v>
       </c>
       <c r="I34" t="n">
-        <v>4.343133812390797</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.437935011160384</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.2125401548394565</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-7.688738107949513</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9668864914.289492</v>
+        <v>9461079869.565414</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1284112324462273</v>
+        <v>0.1691611646941434</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08617983406444142</v>
+        <v>0.2904202572486006</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6714741825917844</v>
+        <v>5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.974300702008955</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3492988346913199</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.761757278893547</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9078122133230833</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.39448698756812</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6288750030.971902</v>
+        <v>10699823585.34146</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2457467847169556</v>
+        <v>0.113345566899017</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5562073110343445</v>
+        <v>0.1292554214380564</v>
       </c>
       <c r="I36" t="n">
-        <v>4.771785752906091</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.775232021708645</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7239781456701055</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.704330891693465</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>9843890283.692446</v>
+        <v>12525096030.84267</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1221366731394549</v>
+        <v>0.07905164300232397</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06104495189969426</v>
+        <v>0.03023337684047224</v>
       </c>
       <c r="I37" t="n">
-        <v>3.712287560311687</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.377095719307018</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.3964945003071991</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-11.306985725451</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>6523593749.460043</v>
+        <v>9906907091.180006</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1642239770201316</v>
+        <v>0.1271765828026889</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2296399674143154</v>
+        <v>0.1691918101047195</v>
       </c>
       <c r="I38" t="n">
-        <v>3.307898937184052</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.81575230089988</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7338139281731374</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.860526262562868</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>10105475179.35618</v>
+        <v>10284977877.98296</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1153462384808175</v>
+        <v>0.1459322993015859</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03384355549117767</v>
+        <v>0.2233480332656544</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6118258970510138</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.510094632317966</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7798416547279639</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.086738462241311</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>7003844264.87238</v>
+        <v>4006624638.674116</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1989643726073615</v>
+        <v>0.3471490881811877</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3688044420411213</v>
+        <v>0.8043517674035251</v>
       </c>
       <c r="I40" t="n">
-        <v>4.302694950078034</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.031446928638543</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7596342713073212</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.161238497507881</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>6638025121.725458</v>
+        <v>8884877663.669388</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1929612628020687</v>
+        <v>0.1320768573773878</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3447569432127634</v>
+        <v>0.1833411156475311</v>
       </c>
       <c r="I41" t="n">
-        <v>3.954920734188268</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.88107716945297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7155367256130246</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.429657342807522</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4409762479.265531</v>
+        <v>11614166362.54327</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2762090601766078</v>
+        <v>0.09743071045111214</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.678234319898856</v>
+        <v>0.08330204410812797</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6478796781958714</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.832459245930095</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.706268718224036</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.292915118550625</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>8572893338.346532</v>
+        <v>6244383030.839087</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1487995802180405</v>
+        <v>0.158563210346011</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.167852298013469</v>
+        <v>0.2598191772653</v>
       </c>
       <c r="I43" t="n">
-        <v>3.938745189263163</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.533080767697425</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5564398422251305</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.595716076805187</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>5791595089.137625</v>
+        <v>6503894723.593276</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2600577607410513</v>
+        <v>0.2372148959304835</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6135347946776847</v>
+        <v>0.4869221107494392</v>
       </c>
       <c r="I44" t="n">
-        <v>4.6504691659678</v>
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9729617719688939</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3758518248085765</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.259905598010342</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8406596616905949</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.55328763580156</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>9036287102.973259</v>
+        <v>8544591995.597288</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1733450035562284</v>
+        <v>0.1152647944462975</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2661773425505862</v>
+        <v>0.134797098043866</v>
       </c>
       <c r="I45" t="n">
-        <v>4.836487932606512</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.049340729368772</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4642302532181159</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5.235264334993545</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>10046521586.98709</v>
+        <v>11731337121.82651</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1068976850048329</v>
+        <v>0.1326291831734311</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.1849359296376988</v>
       </c>
       <c r="I46" t="n">
-        <v>3.315986709646605</v>
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9691817413123245</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.41501364709821</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.820478555104908</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9405675439355775</v>
+      </c>
+      <c r="N46" t="n">
+        <v>13.99087232360664</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>5645608128.096312</v>
+        <v>12455858007.52861</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2203855141500133</v>
+        <v>0.08811311186564837</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4546141128378866</v>
+        <v>0.05639792938939344</v>
       </c>
       <c r="I47" t="n">
-        <v>3.841691919712531</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.878793473201013</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6985239036062434</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.091684598923855</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>9820554299.558832</v>
+        <v>6410614919.915449</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1560342831227803</v>
+        <v>0.238214958951261</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.19683336203996</v>
+        <v>0.4898097442947322</v>
       </c>
       <c r="I48" t="n">
-        <v>4.731346890593327</v>
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9681708024188457</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2071151685611967</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4.612580076567895</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.933727241223515</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.0619647479024</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>7896439892.960886</v>
+        <v>3729029787.147458</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1459558504367772</v>
+        <v>0.3027482091698715</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1564607708215454</v>
+        <v>0.6761463793331776</v>
       </c>
       <c r="I49" t="n">
-        <v>3.558619883523186</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.969700460392489</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7056799755487445</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.143899050582401</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>5899196832.849854</v>
+        <v>5594219300.218218</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.234889146651952</v>
+        <v>0.2439486399731891</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5127133475528329</v>
+        <v>0.5063654705969195</v>
       </c>
       <c r="I50" t="n">
-        <v>4.278431632690376</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.69231294476574</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7546336083963987</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.400359223162234</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>7605879446.285822</v>
+        <v>9880240765.782364</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1642741038460902</v>
+        <v>0.1362685881767972</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2298407674708871</v>
+        <v>0.1954445353498244</v>
       </c>
       <c r="I51" t="n">
-        <v>3.857867464637636</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.737501282559648</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7510865922043364</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.284230561527079</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6412167197.580356</v>
+        <v>13930806167.25334</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2185491436543968</v>
+        <v>0.08047624139910355</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4472579060094133</v>
+        <v>0.03434683572620673</v>
       </c>
       <c r="I52" t="n">
-        <v>4.326958267465693</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.928693840478352</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6579701018405076</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.230708196331801</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>6599329021.34017</v>
+        <v>14144213464.64518</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1805975192547634</v>
+        <v>0.09778118263394682</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2952297617832644</v>
+        <v>0.08431401556474555</v>
       </c>
       <c r="I53" t="n">
-        <v>3.679936470461477</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.707224966425568</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7581421440507623</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.455617914589678</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>10459602751.99082</v>
+        <v>12022317188.71843</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1384873502699992</v>
+        <v>0.1324693979538706</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1265431523145781</v>
+        <v>0.1844745575536814</v>
       </c>
       <c r="I54" t="n">
-        <v>4.472538171791641</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.9697099021477</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.3475626311241224</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.981542720334748</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>8276300653.986085</v>
+        <v>14226237342.81154</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1794514472217356</v>
+        <v>0.09298255878378137</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2906387803144349</v>
+        <v>0.0704582215666742</v>
       </c>
       <c r="I55" t="n">
-        <v>4.585766986267378</v>
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3175935873045467</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.730052031506773</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5388447484413557</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7.04684293732034</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>7352970743.840852</v>
+        <v>12013476879.80649</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2087540660060082</v>
+        <v>0.1042219860683802</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4080203898031257</v>
+        <v>0.10291152359124</v>
       </c>
       <c r="I56" t="n">
-        <v>4.73943466305588</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.901101385762081</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7321959552675974</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.742817719589867</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>8339108998.502526</v>
+        <v>11607614467.87772</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1309834935838043</v>
+        <v>0.0848486691839682</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.09648390123935366</v>
+        <v>0.04697200922390425</v>
       </c>
       <c r="I57" t="n">
-        <v>3.372601116884474</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.639317261672366</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6193065440240008</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.74681361880765</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>4559092952.877357</v>
+        <v>8186801184.985765</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2499257334248635</v>
+        <v>0.1977308332549686</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5729475119329821</v>
+        <v>0.3729137917560659</v>
       </c>
       <c r="I58" t="n">
-        <v>3.518181021210423</v>
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.5158109649299203</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.630945075660827</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5805491956731904</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.980038837802982</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11482707207.75866</v>
+        <v>8480197116.144107</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1186203545344834</v>
+        <v>0.1862565396024881</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.04695914133220613</v>
+        <v>0.3397823244674459</v>
       </c>
       <c r="I59" t="n">
-        <v>4.205641680527402</v>
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9681140032490436</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3946464097364892</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.209890935551165</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9234455291627172</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.25901964770318</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>5668532979.637996</v>
+        <v>12263128434.0718</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2707865589763272</v>
+        <v>0.0828763496577475</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6565126463846469</v>
+        <v>0.04127703209983866</v>
       </c>
       <c r="I60" t="n">
-        <v>4.73943466305588</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.671882803424187</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6791993664873514</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.91210452632284</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>4020930385.968368</v>
+        <v>7233457888.109561</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2631812686170501</v>
+        <v>0.1386925016386858</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6260470682200115</v>
+        <v>0.2024434680950787</v>
       </c>
       <c r="I61" t="n">
-        <v>3.267460074871289</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.710230383831455</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6759597440152838</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.808964496474221</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>6062658906.613681</v>
+        <v>11867742795.44517</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2484304779800427</v>
+        <v>0.1284561863427893</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5669577575017503</v>
+        <v>0.1728866033630454</v>
       </c>
       <c r="I62" t="n">
-        <v>4.6504691659678</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.343217826506205</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7840162743160649</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.337107659815093</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>9882184247.826813</v>
+        <v>8700975389.471453</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1486996956490821</v>
+        <v>0.1794231531661456</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.167452176387694</v>
+        <v>0.3200512520334373</v>
       </c>
       <c r="I63" t="n">
-        <v>4.537240351492063</v>
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9696970325914146</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.364109112623511</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.769574020630209</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9419189954884927</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.06880588913964</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>7409029947.891761</v>
+        <v>11666388916.97125</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.184547989361154</v>
+        <v>0.1068736563536143</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3110547139057681</v>
+        <v>0.1105680931349736</v>
       </c>
       <c r="I64" t="n">
-        <v>4.221817225452507</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.015249997165945</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7311126544591184</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.607003092016424</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>10896094628.99865</v>
+        <v>11827904656.26227</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1108230821331416</v>
+        <v>0.08481860474491082</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01572451377794499</v>
+        <v>0.04688519961197096</v>
       </c>
       <c r="I65" t="n">
-        <v>3.728463105236793</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.456988745405356</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5615153341779601</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.773317938153845</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>8718489535.307806</v>
+        <v>10842060498.78263</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1412071775752307</v>
+        <v>0.1123417776664096</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.137438345982071</v>
+        <v>0.126357028636543</v>
       </c>
       <c r="I66" t="n">
-        <v>3.801253057399767</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.191012987781708</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.725086456251877</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.310716137255831</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>8047189906.052925</v>
+        <v>11084986883.41879</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1494061932222645</v>
+        <v>0.09097576394145206</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17028229279642</v>
+        <v>0.0646636986367829</v>
       </c>
       <c r="I67" t="n">
-        <v>3.712287560311687</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.070303333905605</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.5044634809378327</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-13.15957295266226</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>3745305203.668093</v>
+        <v>6249056262.376779</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3119232950243511</v>
+        <v>0.215032000606267</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8212998390235583</v>
+        <v>0.4228700746886158</v>
       </c>
       <c r="I68" t="n">
-        <v>3.607146518298503</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.723047307284119</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.5960536611090417</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-14.64412052946495</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>10852239835.2953</v>
+        <v>3944913649.069805</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1313045216127244</v>
+        <v>0.312076108507544</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.09776988823604651</v>
+        <v>0.7030802369751097</v>
       </c>
       <c r="I69" t="n">
-        <v>4.399748219628666</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.711630693764528</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7278400742779828</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.845170791795129</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>9291983703.096411</v>
+        <v>10991268422.41873</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1429221975020742</v>
+        <v>0.09604116007638201</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1443084418189016</v>
+        <v>0.0792897846888906</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7648427306953614</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.696384269971976</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6887079933187853</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.077775596403731</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>6544127812.332243</v>
+        <v>11415229102.96471</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1669108032917107</v>
+        <v>0.1314831666068087</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2404029642132134</v>
+        <v>0.1816268622964549</v>
       </c>
       <c r="I71" t="n">
-        <v>3.372601116884474</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.508596036000052</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7798416547279639</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.088237058559224</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10639380600.44933</v>
+        <v>8855511673.025919</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1149742805467771</v>
+        <v>0.1573613735098649</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03235355143109066</v>
+        <v>0.2563489315988553</v>
       </c>
       <c r="I72" t="n">
-        <v>0.561782395901042</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.949239662092375</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7601301305107092</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.253362948121809</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>5433721362.845075</v>
+        <v>10269335902.73251</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2453695029555041</v>
+        <v>0.1456444412926473</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5546959805721783</v>
+        <v>0.2225168572041234</v>
       </c>
       <c r="I73" t="n">
-        <v>4.116676183439322</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.981685116481647</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.7789068472881729</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7.596451829281812</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>5161167383.374821</v>
+        <v>11093089735.60811</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2299060623033133</v>
+        <v>0.09161769572075727</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4927519077454442</v>
+        <v>0.0665172455645259</v>
       </c>
       <c r="I74" t="n">
-        <v>3.663760925536371</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.574700945713318</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5664859810516463</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.755018675319607</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>9200911708.947264</v>
+        <v>11556783018.40219</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1617028363127539</v>
+        <v>0.08975494636771426</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2195406805158255</v>
+        <v>0.06113864700966842</v>
       </c>
       <c r="I75" t="n">
-        <v>4.593854758729932</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.803182731541034</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6843089830867372</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.882996930193709</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>6872473948.022572</v>
+        <v>10929918867.51513</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1692271471374052</v>
+        <v>0.1445108778157922</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2496818676019708</v>
+        <v>0.2192437475565523</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7521757824867965</v>
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9635877278480464</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2383783752950523</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.650836819497279</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8983636254512776</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.31643568952827</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>10983016303.86396</v>
+        <v>10354095682.10264</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1240171882036452</v>
+        <v>0.1161183020626525</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.06857799481737588</v>
+        <v>0.1372615599557103</v>
       </c>
       <c r="I77" t="n">
-        <v>0.8614340518359785</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.767928232130163</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7217495704356002</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.66706317658184</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>8773115837.71327</v>
+        <v>4122180160.092091</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1427165038238403</v>
+        <v>0.2910306132697507</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1434844658053414</v>
+        <v>0.6423123885862009</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6195554141332636</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.693776304526248</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7211899107112985</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.730021909699721</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>3978519278.811413</v>
+        <v>5407300436.180176</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2798128328619239</v>
+        <v>0.2581944329666759</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6926704575406163</v>
+        <v>0.547499508025195</v>
       </c>
       <c r="I79" t="n">
-        <v>3.437303296584896</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.995662377565708</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7606252361064915</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.216842344564121</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>9727248433.65873</v>
+        <v>6962325219.84135</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1244090955683365</v>
+        <v>0.2114375777512939</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07014791310954649</v>
+        <v>0.4124913527517529</v>
       </c>
       <c r="I80" t="n">
-        <v>3.736550877699345</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.152444938246298</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7746674662681057</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.340904387115817</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>8153618178.245651</v>
+        <v>11687812613.63017</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1362120883907963</v>
+        <v>0.08673170622344099</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1174288167203668</v>
+        <v>0.05240918749091376</v>
       </c>
       <c r="I81" t="n">
-        <v>3.429215524122343</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.090633432052864</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.5018684937151244</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-13.12800330635535</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>8164035358.356436</v>
+        <v>9542032240.27742</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1405301140477875</v>
+        <v>0.1361573098145629</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1347261376582188</v>
+        <v>0.195123224467433</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6115846016116534</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.594814865939472</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.6640935348342185</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-15.87668556262384</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>7705369570.980952</v>
+        <v>3907876786.091555</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1485552924431987</v>
+        <v>0.3807217068089881</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1668737202146569</v>
+        <v>0.9012910779657765</v>
       </c>
       <c r="I83" t="n">
-        <v>3.534356566135528</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>8.065350964361096</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.777499708361324</v>
+      </c>
+      <c r="N83" t="n">
+        <v>7.484643202865383</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>5199545130.171912</v>
+        <v>8763168033.664558</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2649845525919007</v>
+        <v>0.1808399592375843</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6332707357321703</v>
+        <v>0.3241422109570865</v>
       </c>
       <c r="I84" t="n">
-        <v>4.254168315302718</v>
+        <v>6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.973657716787753</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3481881197883069</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.463322230519213</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8791947005077667</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.12057177963612</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10070661430.43524</v>
+        <v>9678492212.927383</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1256288257468826</v>
+        <v>0.1299073422119034</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07503395734176101</v>
+        <v>0.177076745664123</v>
       </c>
       <c r="I85" t="n">
-        <v>3.906394099412952</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.720685043141202</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7332755291392397</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.944825539643592</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>11244998205.05842</v>
+        <v>3718471875.109119</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.119730251214656</v>
+        <v>0.414907188172487</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05140521011684117</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>4.157115045752086</v>
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9688533240402992</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2601761251741311</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.672634569376358</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8913283912457511</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.15393325553867</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>9458100578.337862</v>
+        <v>5045527675.855429</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1149328917573252</v>
+        <v>0.308375607063974</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03218775455278328</v>
+        <v>0.6923952182504386</v>
       </c>
       <c r="I87" t="n">
-        <v>3.356425571959369</v>
+        <v>6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9692239847300766</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2861071074010599</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.401241218131966</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8696583151002603</v>
+      </c>
+      <c r="N87" t="n">
+        <v>13.99192508387324</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>9739153197.776497</v>
+        <v>3599957605.545852</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1207606129728518</v>
+        <v>0.3216066706497924</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05553267471046793</v>
+        <v>0.7305992736514806</v>
       </c>
       <c r="I88" t="n">
-        <v>3.63140983568616</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.878506680136511</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7120941581955932</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.363376483775352</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>11267658992.73897</v>
+        <v>8075881016.265784</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1183271086619836</v>
+        <v>0.1874727248891618</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.04578444521567959</v>
+        <v>0.3432940005899776</v>
       </c>
       <c r="I89" t="n">
-        <v>0.7665239461361497</v>
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2181397660913041</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.613710318268127</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7471066033008823</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.32842174774952</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>7573093846.307214</v>
+        <v>8289631954.575406</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1577217797957743</v>
+        <v>0.1361890487040115</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.203593204118961</v>
+        <v>0.1952148689737872</v>
       </c>
       <c r="I90" t="n">
-        <v>3.688024242924029</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.146149896998159</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7056799755487445</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.967449613976731</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>8355321025.304541</v>
+        <v>6425990025.897297</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.150793319153656</v>
+        <v>0.1850614543762764</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1758388976715318</v>
+        <v>0.3363315737477461</v>
       </c>
       <c r="I91" t="n">
-        <v>3.890218554487847</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.66827677848572</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7189410745562135</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.71054471263855</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>6324259166.863419</v>
+        <v>5772505174.277068</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2273855438333046</v>
+        <v>0.1719788514740186</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4826551134304462</v>
+        <v>0.2985561913814029</v>
       </c>
       <c r="I92" t="n">
-        <v>4.44018708194143</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.243998382020552</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.3942169969104702</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-11.12833832022996</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>7713606461.862376</v>
+        <v>4135996199.972183</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1633381993532248</v>
+        <v>0.2507928899951544</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2260916835917631</v>
+        <v>0.526127911108354</v>
       </c>
       <c r="I93" t="n">
-        <v>0.6812281753302906</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.051858943736518</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.6843089830867372</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.634320717998225</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>8121453003.953773</v>
+        <v>8223352716.413918</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.146427376901776</v>
+        <v>0.1630876999016584</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1583496305096692</v>
+        <v>0.2728834217626705</v>
       </c>
       <c r="I94" t="n">
-        <v>3.671848697998924</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.111662463672033</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7500659465444646</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.889656467217257</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6787197695.635009</v>
+        <v>13104123614.08535</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2249977735261952</v>
+        <v>0.1007448188737303</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4730900870482912</v>
+        <v>0.09287137169555425</v>
       </c>
       <c r="I95" t="n">
-        <v>4.715171345668222</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.098244985515159</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.745950600274923</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.8207670199833</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>4412357034.656373</v>
+        <v>10055743321.56416</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3532209741321117</v>
+        <v>0.1505614623986343</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9867317438476503</v>
+        <v>0.2367145175450931</v>
       </c>
       <c r="I96" t="n">
-        <v>4.812224615218854</v>
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9682101229529768</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.3650183816959265</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4.770483289702625</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9307616967108838</v>
+      </c>
+      <c r="N96" t="n">
+        <v>13.84475064451505</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6713739860.172893</v>
+        <v>12359765373.27183</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2337020263933185</v>
+        <v>0.1229186925574973</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.507957933450056</v>
+        <v>0.1568973582064447</v>
       </c>
       <c r="I97" t="n">
-        <v>4.844575705069065</v>
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9753938778452532</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3881649906082194</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.085950266696631</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8050675283038026</v>
+      </c>
+      <c r="N97" t="n">
+        <v>13.01540029937942</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4334046982.175569</v>
+        <v>10665812347.34403</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2465850334330103</v>
+        <v>0.103883504970525</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5595652014729676</v>
+        <v>0.1019341758118424</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4384366798336092</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.757534621269818</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7009282308235419</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.26102999520102</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>4717632078.964441</v>
+        <v>8250429708.496916</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2959397525350181</v>
+        <v>0.13239136246141</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.7572723213282534</v>
+        <v>0.1842492338480037</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4423424721002165</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.824640764233526</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.6973144639269513</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.121648514305501</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>8281037489.175175</v>
+        <v>5492945857.870181</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1407587577672108</v>
+        <v>0.2393858985731654</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.135642047870305</v>
+        <v>0.4931907757512252</v>
       </c>
       <c r="I100" t="n">
-        <v>3.59905874583595</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.12540185851638</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.08754945563059399</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-4.87639097112826</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>9513800764.953814</v>
+        <v>12626618098.67051</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.178686116306142</v>
+        <v>0.1252997079373601</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2875729869351738</v>
+        <v>0.1637724248171525</v>
       </c>
       <c r="I101" t="n">
-        <v>5.2489643281967</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9889402026909052</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.066455054678507</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8314254364123478</v>
+      </c>
+      <c r="N101" t="n">
+        <v>13.56205367356845</v>
       </c>
     </row>
   </sheetData>
